--- a/database/industries/ghaza/gheshahdab/product/quarterly.xlsx
+++ b/database/industries/ghaza/gheshahdab/product/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\ghaza\gheshahdab\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\gheshahdab\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B01349-F28C-48E9-AB56-A2CB9EB29DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="35">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>غشهداب-کشت و صنعت شهداب ناب خراسان</t>
@@ -36,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -51,6 +49,9 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>سایر</t>
   </si>
   <si>
@@ -117,22 +118,19 @@
     <t>ریال / ریال</t>
   </si>
   <si>
+    <t>/ ریال</t>
+  </si>
+  <si>
     <t>مبلغ بهای تمام شده</t>
   </si>
   <si>
     <t>سود ناخالص</t>
-  </si>
-  <si>
-    <t>سس</t>
-  </si>
-  <si>
-    <t>رب</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -302,7 +300,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -314,7 +312,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -361,6 +359,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -396,6 +411,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -547,19 +579,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I106"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -569,7 +599,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -581,7 +611,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -593,7 +623,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -603,7 +633,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -615,7 +645,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -627,7 +657,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -637,7 +667,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -659,7 +689,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -669,7 +699,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -678,38 +708,38 @@
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>531</v>
+        <v>910</v>
       </c>
       <c r="F10" s="9">
-        <v>910</v>
+        <v>476</v>
       </c>
       <c r="G10" s="9">
-        <v>476</v>
+        <v>110</v>
       </c>
       <c r="H10" s="9">
-        <v>110</v>
+        <v>322</v>
       </c>
       <c r="I10" s="9">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>6779</v>
+        <v>2621</v>
       </c>
       <c r="F11" s="11">
-        <v>2621</v>
-      </c>
-      <c r="G11" s="11">
         <v>2949</v>
       </c>
+      <c r="G11" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" s="11" t="s">
         <v>13</v>
       </c>
@@ -717,23 +747,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>1977</v>
+        <v>2889</v>
       </c>
       <c r="F12" s="9">
-        <v>2889</v>
-      </c>
-      <c r="G12" s="9">
         <v>3666</v>
       </c>
+      <c r="G12" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" s="9" t="s">
         <v>13</v>
       </c>
@@ -741,7 +771,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -755,27 +785,27 @@
       <c r="F13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>13</v>
+      <c r="G13" s="11">
+        <v>0</v>
       </c>
       <c r="H13" s="11">
-        <v>0</v>
+        <v>2371</v>
       </c>
       <c r="I13" s="11">
-        <v>2371</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4504</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="9">
-        <v>0</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>13</v>
+      <c r="E14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="9">
+        <v>0</v>
       </c>
       <c r="G14" s="9">
         <v>0</v>
@@ -787,7 +817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
@@ -811,7 +841,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
@@ -835,7 +865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
@@ -846,20 +876,20 @@
       <c r="E17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="11">
-        <v>0</v>
+      <c r="F17" s="11">
+        <v>0</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="H17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>20</v>
       </c>
@@ -883,7 +913,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
@@ -897,17 +927,17 @@
       <c r="F19" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="11" t="s">
-        <v>13</v>
+      <c r="G19" s="11">
+        <v>2240</v>
       </c>
       <c r="H19" s="11">
-        <v>2240</v>
+        <v>2223</v>
       </c>
       <c r="I19" s="11">
-        <v>2223</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>22</v>
       </c>
@@ -921,39 +951,39 @@
       <c r="F20" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>13</v>
+      <c r="G20" s="9">
+        <v>1015</v>
       </c>
       <c r="H20" s="9">
-        <v>1015</v>
+        <v>4446</v>
       </c>
       <c r="I20" s="9">
-        <v>4446</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3202</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>9287</v>
+        <v>6420</v>
       </c>
       <c r="F21" s="13">
-        <v>6420</v>
+        <v>7091</v>
       </c>
       <c r="G21" s="13">
-        <v>7091</v>
+        <v>3365</v>
       </c>
       <c r="H21" s="13">
-        <v>3365</v>
+        <v>9362</v>
       </c>
       <c r="I21" s="13">
-        <v>9362</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>11442</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -963,7 +993,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -973,7 +1003,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -983,7 +1013,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
         <v>24</v>
       </c>
@@ -1005,7 +1035,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1015,7 +1045,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>10</v>
       </c>
@@ -1024,38 +1054,38 @@
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9">
-        <v>320</v>
-      </c>
-      <c r="F27" s="9">
         <v>553</v>
       </c>
+      <c r="F27" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="G27" s="9">
-        <v>173</v>
+        <v>107</v>
       </c>
       <c r="H27" s="9">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="I27" s="9">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11">
-        <v>5623</v>
+        <v>5418</v>
       </c>
       <c r="F28" s="11">
-        <v>5418</v>
-      </c>
-      <c r="G28" s="11">
         <v>3948</v>
       </c>
+      <c r="G28" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" s="11" t="s">
         <v>13</v>
       </c>
@@ -1063,23 +1093,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
-        <v>1973</v>
+        <v>2965</v>
       </c>
       <c r="F29" s="9">
-        <v>2965</v>
-      </c>
-      <c r="G29" s="9">
         <v>3623</v>
       </c>
+      <c r="G29" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" s="9" t="s">
         <v>13</v>
       </c>
@@ -1087,7 +1117,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>25</v>
       </c>
@@ -1111,7 +1141,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>15</v>
       </c>
@@ -1125,24 +1155,24 @@
       <c r="F31" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G31" s="9" t="s">
-        <v>13</v>
+      <c r="G31" s="9">
+        <v>0</v>
       </c>
       <c r="H31" s="9">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="I31" s="9">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
-      <c r="E32" s="11">
-        <v>0</v>
+      <c r="E32" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>13</v>
@@ -1157,7 +1187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>17</v>
       </c>
@@ -1181,7 +1211,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>18</v>
       </c>
@@ -1205,7 +1235,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>19</v>
       </c>
@@ -1213,23 +1243,23 @@
         <v>11</v>
       </c>
       <c r="D35" s="9"/>
-      <c r="E35" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="9">
+      <c r="E35" s="9">
         <v>1250</v>
       </c>
-      <c r="G35" s="9">
-        <v>0</v>
+      <c r="F35" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="H35" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I35" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I35" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>20</v>
       </c>
@@ -1253,7 +1283,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>21</v>
       </c>
@@ -1267,17 +1297,17 @@
       <c r="F37" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="9" t="s">
-        <v>13</v>
+      <c r="G37" s="9">
+        <v>2217</v>
       </c>
       <c r="H37" s="9">
-        <v>2217</v>
+        <v>2198</v>
       </c>
       <c r="I37" s="9">
-        <v>2198</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>22</v>
       </c>
@@ -1291,39 +1321,39 @@
       <c r="F38" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G38" s="11" t="s">
-        <v>13</v>
+      <c r="G38" s="11">
+        <v>1467</v>
       </c>
       <c r="H38" s="11">
-        <v>1467</v>
+        <v>2611</v>
       </c>
       <c r="I38" s="11">
-        <v>2611</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15">
-        <v>7916</v>
+        <v>10186</v>
       </c>
       <c r="F39" s="15">
-        <v>10186</v>
+        <v>7571</v>
       </c>
       <c r="G39" s="15">
-        <v>7744</v>
+        <v>3791</v>
       </c>
       <c r="H39" s="15">
-        <v>3791</v>
+        <v>5176</v>
       </c>
       <c r="I39" s="15">
-        <v>5176</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9051</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1333,7 +1363,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1343,7 +1373,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1353,7 +1383,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B43" s="7" t="s">
         <v>27</v>
       </c>
@@ -1375,7 +1405,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1385,7 +1415,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>10</v>
       </c>
@@ -1394,38 +1424,38 @@
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9">
-        <v>8365</v>
-      </c>
-      <c r="F45" s="9">
         <v>16163</v>
       </c>
+      <c r="F45" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="G45" s="9">
-        <v>5614</v>
+        <v>3751</v>
       </c>
       <c r="H45" s="9">
-        <v>3751</v>
+        <v>5092</v>
       </c>
       <c r="I45" s="9">
-        <v>5092</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15889</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11">
-        <v>994742</v>
+        <v>1330194</v>
       </c>
       <c r="F46" s="11">
-        <v>1330194</v>
-      </c>
-      <c r="G46" s="11">
         <v>1027243</v>
       </c>
+      <c r="G46" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="H46" s="11" t="s">
         <v>13</v>
       </c>
@@ -1433,23 +1463,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9">
-        <v>324501</v>
+        <v>506457</v>
       </c>
       <c r="F47" s="9">
-        <v>506457</v>
-      </c>
-      <c r="G47" s="9">
         <v>784004</v>
       </c>
+      <c r="G47" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="H47" s="9" t="s">
         <v>13</v>
       </c>
@@ -1457,7 +1487,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>25</v>
       </c>
@@ -1481,7 +1511,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>15</v>
       </c>
@@ -1495,17 +1525,17 @@
       <c r="F49" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G49" s="9" t="s">
-        <v>13</v>
+      <c r="G49" s="9">
+        <v>0</v>
       </c>
       <c r="H49" s="9">
-        <v>0</v>
+        <v>59540</v>
       </c>
       <c r="I49" s="9">
-        <v>59540</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+        <v>666003</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>16</v>
       </c>
@@ -1513,8 +1543,8 @@
         <v>28</v>
       </c>
       <c r="D50" s="11"/>
-      <c r="E50" s="11">
-        <v>0</v>
+      <c r="E50" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="F50" s="11" t="s">
         <v>13</v>
@@ -1529,7 +1559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>17</v>
       </c>
@@ -1553,7 +1583,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>18</v>
       </c>
@@ -1577,7 +1607,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>19</v>
       </c>
@@ -1585,23 +1615,23 @@
         <v>28</v>
       </c>
       <c r="D53" s="9"/>
-      <c r="E53" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" s="9">
+      <c r="E53" s="9">
         <v>27507</v>
       </c>
-      <c r="G53" s="9">
-        <v>0</v>
+      <c r="F53" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="H53" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I53" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I53" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>20</v>
       </c>
@@ -1625,7 +1655,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>21</v>
       </c>
@@ -1639,17 +1669,17 @@
       <c r="F55" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G55" s="9" t="s">
-        <v>13</v>
+      <c r="G55" s="9">
+        <v>709072</v>
       </c>
       <c r="H55" s="9">
-        <v>709072</v>
+        <v>959914</v>
       </c>
       <c r="I55" s="9">
-        <v>959914</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1256192</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>22</v>
       </c>
@@ -1663,39 +1693,39 @@
       <c r="F56" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G56" s="11" t="s">
-        <v>13</v>
+      <c r="G56" s="11">
+        <v>516009</v>
       </c>
       <c r="H56" s="11">
-        <v>516009</v>
+        <v>1054881</v>
       </c>
       <c r="I56" s="11">
-        <v>1054881</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1094169</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
       <c r="E57" s="15">
-        <v>1327608</v>
+        <v>1880321</v>
       </c>
       <c r="F57" s="15">
-        <v>1880321</v>
+        <v>1811247</v>
       </c>
       <c r="G57" s="15">
-        <v>1816861</v>
+        <v>1228832</v>
       </c>
       <c r="H57" s="15">
-        <v>1228832</v>
+        <v>2079427</v>
       </c>
       <c r="I57" s="15">
-        <v>2079427</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3032253</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1705,7 +1735,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1715,7 +1745,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1725,7 +1755,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B61" s="7" t="s">
         <v>29</v>
       </c>
@@ -1747,7 +1777,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1757,7 +1787,7 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>10</v>
       </c>
@@ -1766,22 +1796,22 @@
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9">
-        <v>26140625</v>
+        <v>29227848</v>
       </c>
       <c r="F63" s="9">
-        <v>29227848</v>
+        <v>32450867</v>
       </c>
       <c r="G63" s="9">
-        <v>32450867</v>
+        <v>35056075</v>
       </c>
       <c r="H63" s="9">
-        <v>35056075</v>
+        <v>42082645</v>
       </c>
       <c r="I63" s="9">
-        <v>42082645</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+        <v>40533163</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>12</v>
       </c>
@@ -1790,14 +1820,14 @@
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
-        <v>176905922</v>
+        <v>245513843</v>
       </c>
       <c r="F64" s="11">
-        <v>245513843</v>
-      </c>
-      <c r="G64" s="11">
         <v>260193262</v>
       </c>
+      <c r="G64" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="H64" s="11" t="s">
         <v>13</v>
       </c>
@@ -1805,7 +1835,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>14</v>
       </c>
@@ -1814,14 +1844,14 @@
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9">
-        <v>164470857</v>
+        <v>170811804</v>
       </c>
       <c r="F65" s="9">
-        <v>170811804</v>
-      </c>
-      <c r="G65" s="9">
         <v>216396357</v>
       </c>
+      <c r="G65" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="H65" s="9" t="s">
         <v>13</v>
       </c>
@@ -1829,7 +1859,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>25</v>
       </c>
@@ -1853,7 +1883,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>15</v>
       </c>
@@ -1870,19 +1900,19 @@
       <c r="G67" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H67" s="9" t="s">
-        <v>13</v>
+      <c r="H67" s="9">
+        <v>242032520</v>
       </c>
       <c r="I67" s="9">
-        <v>242032520</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+        <v>258742424</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11" t="s">
@@ -1901,7 +1931,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>17</v>
       </c>
@@ -1925,7 +1955,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>18</v>
       </c>
@@ -1949,7 +1979,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>19</v>
       </c>
@@ -1957,12 +1987,12 @@
         <v>30</v>
       </c>
       <c r="D71" s="9"/>
-      <c r="E71" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F71" s="9">
+      <c r="E71" s="9">
         <v>22005600</v>
       </c>
+      <c r="F71" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="G71" s="9" t="s">
         <v>13</v>
       </c>
@@ -1973,7 +2003,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>20</v>
       </c>
@@ -1997,7 +2027,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>21</v>
       </c>
@@ -2011,17 +2041,17 @@
       <c r="F73" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G73" s="9" t="s">
-        <v>13</v>
+      <c r="G73" s="9">
+        <v>319834010</v>
       </c>
       <c r="H73" s="9">
-        <v>319834010</v>
+        <v>436721565</v>
       </c>
       <c r="I73" s="9">
-        <v>436721565</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+        <v>425683497</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>22</v>
       </c>
@@ -2035,17 +2065,17 @@
       <c r="F74" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G74" s="11" t="s">
-        <v>13</v>
+      <c r="G74" s="11">
+        <v>351744376</v>
       </c>
       <c r="H74" s="11">
-        <v>351744376</v>
+        <v>404014171</v>
       </c>
       <c r="I74" s="11">
-        <v>404014171</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+        <v>349128590</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2055,7 +2085,7 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2065,7 +2095,7 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2075,9 +2105,9 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B78" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -2097,7 +2127,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2107,7 +2137,7 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>10</v>
       </c>
@@ -2116,38 +2146,38 @@
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9">
-        <v>-7883</v>
+        <v>-15358</v>
       </c>
       <c r="F80" s="9">
-        <v>-15358</v>
+        <v>-3916</v>
       </c>
       <c r="G80" s="9">
-        <v>-3916</v>
+        <v>-3699</v>
       </c>
       <c r="H80" s="9">
-        <v>-3699</v>
+        <v>-5017</v>
       </c>
       <c r="I80" s="9">
-        <v>-5017</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-15731</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C81" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11">
-        <v>-544423</v>
+        <v>-1061478</v>
       </c>
       <c r="F81" s="11">
-        <v>-1061478</v>
-      </c>
-      <c r="G81" s="11">
         <v>-839161</v>
       </c>
+      <c r="G81" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="H81" s="11" t="s">
         <v>13</v>
       </c>
@@ -2155,23 +2185,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C82" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D82" s="9"/>
       <c r="E82" s="9">
-        <v>-269461</v>
+        <v>-430520</v>
       </c>
       <c r="F82" s="9">
-        <v>-430520</v>
-      </c>
-      <c r="G82" s="9">
         <v>-615472</v>
       </c>
+      <c r="G82" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="H82" s="9" t="s">
         <v>13</v>
       </c>
@@ -2179,7 +2209,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="10" t="s">
         <v>25</v>
       </c>
@@ -2203,7 +2233,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
         <v>15</v>
       </c>
@@ -2217,17 +2247,17 @@
       <c r="F84" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G84" s="9" t="s">
-        <v>13</v>
+      <c r="G84" s="9">
+        <v>0</v>
       </c>
       <c r="H84" s="9">
-        <v>0</v>
+        <v>-50032</v>
       </c>
       <c r="I84" s="9">
-        <v>-50032</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-604656</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>16</v>
       </c>
@@ -2235,11 +2265,11 @@
         <v>28</v>
       </c>
       <c r="D85" s="11"/>
-      <c r="E85" s="11">
-        <v>0</v>
-      </c>
-      <c r="F85" s="11" t="s">
-        <v>13</v>
+      <c r="E85" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="11">
+        <v>0</v>
       </c>
       <c r="G85" s="11">
         <v>0</v>
@@ -2251,7 +2281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
         <v>17</v>
       </c>
@@ -2275,7 +2305,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>19</v>
       </c>
@@ -2283,23 +2313,23 @@
         <v>28</v>
       </c>
       <c r="D87" s="11"/>
-      <c r="E87" s="11" t="s">
-        <v>13</v>
+      <c r="E87" s="11">
+        <v>-17880</v>
       </c>
       <c r="F87" s="11">
-        <v>-17880</v>
-      </c>
-      <c r="G87" s="11">
         <v>8022</v>
       </c>
+      <c r="G87" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="H87" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I87" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I87" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
         <v>21</v>
       </c>
@@ -2313,17 +2343,17 @@
       <c r="F88" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G88" s="9" t="s">
-        <v>13</v>
+      <c r="G88" s="9">
+        <v>-519457</v>
       </c>
       <c r="H88" s="9">
-        <v>-519457</v>
+        <v>-819189</v>
       </c>
       <c r="I88" s="9">
-        <v>-819189</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1128308</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>22</v>
       </c>
@@ -2337,39 +2367,39 @@
       <c r="F89" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G89" s="11" t="s">
-        <v>13</v>
+      <c r="G89" s="11">
+        <v>-365805</v>
       </c>
       <c r="H89" s="11">
-        <v>-365805</v>
+        <v>-867297</v>
       </c>
       <c r="I89" s="11">
-        <v>-867297</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1012739</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C90" s="15"/>
       <c r="D90" s="15"/>
       <c r="E90" s="15">
-        <v>-821767</v>
+        <v>-1525236</v>
       </c>
       <c r="F90" s="15">
-        <v>-1525236</v>
+        <v>-1450527</v>
       </c>
       <c r="G90" s="15">
-        <v>-1450527</v>
+        <v>-888961</v>
       </c>
       <c r="H90" s="15">
-        <v>-888961</v>
+        <v>-1741535</v>
       </c>
       <c r="I90" s="15">
-        <v>-1741535</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-2761434</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2379,7 +2409,7 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2389,7 +2419,7 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2399,9 +2429,9 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B94" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -2421,7 +2451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2431,7 +2461,7 @@
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
         <v>10</v>
       </c>
@@ -2440,22 +2470,22 @@
       </c>
       <c r="D96" s="9"/>
       <c r="E96" s="9">
-        <v>482</v>
+        <v>805</v>
       </c>
       <c r="F96" s="9">
-        <v>805</v>
+        <v>1698</v>
       </c>
       <c r="G96" s="9">
-        <v>1698</v>
+        <v>52</v>
       </c>
       <c r="H96" s="9">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="I96" s="9">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>12</v>
       </c>
@@ -2464,14 +2494,14 @@
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11">
-        <v>450319</v>
+        <v>268716</v>
       </c>
       <c r="F97" s="11">
-        <v>268716</v>
-      </c>
-      <c r="G97" s="11">
         <v>188082</v>
       </c>
+      <c r="G97" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="H97" s="11" t="s">
         <v>13</v>
       </c>
@@ -2479,7 +2509,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="8" t="s">
         <v>14</v>
       </c>
@@ -2488,14 +2518,14 @@
       </c>
       <c r="D98" s="9"/>
       <c r="E98" s="9">
-        <v>55040</v>
+        <v>75937</v>
       </c>
       <c r="F98" s="9">
-        <v>75937</v>
-      </c>
-      <c r="G98" s="9">
         <v>168532</v>
       </c>
+      <c r="G98" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="H98" s="9" t="s">
         <v>13</v>
       </c>
@@ -2503,7 +2533,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>25</v>
       </c>
@@ -2527,7 +2557,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
         <v>15</v>
       </c>
@@ -2541,17 +2571,17 @@
       <c r="F100" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G100" s="9" t="s">
-        <v>13</v>
+      <c r="G100" s="9">
+        <v>0</v>
       </c>
       <c r="H100" s="9">
-        <v>0</v>
+        <v>9508</v>
       </c>
       <c r="I100" s="9">
-        <v>9508</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+        <v>61347</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>16</v>
       </c>
@@ -2559,11 +2589,11 @@
         <v>28</v>
       </c>
       <c r="D101" s="11"/>
-      <c r="E101" s="11">
-        <v>0</v>
-      </c>
-      <c r="F101" s="11" t="s">
-        <v>13</v>
+      <c r="E101" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101" s="11">
+        <v>0</v>
       </c>
       <c r="G101" s="11">
         <v>0</v>
@@ -2575,7 +2605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="8" t="s">
         <v>17</v>
       </c>
@@ -2599,7 +2629,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>19</v>
       </c>
@@ -2607,23 +2637,23 @@
         <v>28</v>
       </c>
       <c r="D103" s="11"/>
-      <c r="E103" s="11" t="s">
-        <v>13</v>
+      <c r="E103" s="11">
+        <v>9627</v>
       </c>
       <c r="F103" s="11">
-        <v>9627</v>
-      </c>
-      <c r="G103" s="11">
         <v>8022</v>
       </c>
+      <c r="G103" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="H103" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I103" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I103" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="8" t="s">
         <v>21</v>
       </c>
@@ -2637,17 +2667,17 @@
       <c r="F104" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G104" s="9" t="s">
-        <v>13</v>
+      <c r="G104" s="9">
+        <v>189615</v>
       </c>
       <c r="H104" s="9">
-        <v>189615</v>
+        <v>140725</v>
       </c>
       <c r="I104" s="9">
-        <v>140725</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+        <v>127884</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
         <v>22</v>
       </c>
@@ -2661,36 +2691,36 @@
       <c r="F105" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G105" s="11" t="s">
-        <v>13</v>
+      <c r="G105" s="11">
+        <v>150204</v>
       </c>
       <c r="H105" s="11">
-        <v>150204</v>
+        <v>187584</v>
       </c>
       <c r="I105" s="11">
-        <v>187584</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+        <v>81430</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C106" s="15"/>
       <c r="D106" s="15"/>
       <c r="E106" s="15">
-        <v>505841</v>
+        <v>355085</v>
       </c>
       <c r="F106" s="15">
-        <v>355085</v>
+        <v>366334</v>
       </c>
       <c r="G106" s="15">
-        <v>366334</v>
+        <v>339871</v>
       </c>
       <c r="H106" s="15">
-        <v>339871</v>
+        <v>337892</v>
       </c>
       <c r="I106" s="15">
-        <v>337892</v>
+        <v>270819</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/ghaza/gheshahdab/product/quarterly.xlsx
+++ b/database/industries/ghaza/gheshahdab/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\gheshahdab\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\gheshahdab\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B01349-F28C-48E9-AB56-A2CB9EB29DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222EF5A2-DF58-4B8E-8B60-877C09E29D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="40">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>مقدار تولید</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -580,16 +595,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I106"/>
+  <dimension ref="B1:N106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -598,8 +613,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -610,8 +630,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -622,8 +647,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -632,8 +662,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -644,8 +679,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -656,8 +696,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -666,8 +711,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -688,8 +738,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -698,292 +763,477 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>-99</v>
+      </c>
+      <c r="F10" s="9">
+        <v>453</v>
+      </c>
+      <c r="G10" s="9">
+        <v>280</v>
+      </c>
+      <c r="H10" s="9">
+        <v>618</v>
+      </c>
+      <c r="I10" s="9">
+        <v>531</v>
+      </c>
+      <c r="J10" s="9">
         <v>910</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>476</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>110</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>322</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>796</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>10363</v>
+      </c>
+      <c r="F11" s="11">
+        <v>6301</v>
+      </c>
+      <c r="G11" s="11">
+        <v>730</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1214</v>
+      </c>
+      <c r="I11" s="11">
+        <v>6779</v>
+      </c>
+      <c r="J11" s="11">
         <v>2621</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>2949</v>
       </c>
-      <c r="G11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>2093</v>
+      </c>
+      <c r="F12" s="9">
+        <v>2333</v>
+      </c>
+      <c r="G12" s="9">
+        <v>3270</v>
+      </c>
+      <c r="H12" s="9">
+        <v>2235</v>
+      </c>
+      <c r="I12" s="9">
+        <v>1977</v>
+      </c>
+      <c r="J12" s="9">
         <v>2889</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>3666</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="11">
-        <v>0</v>
-      </c>
-      <c r="H13" s="11">
+        <v>18</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="11">
+        <v>0</v>
+      </c>
+      <c r="M13" s="11">
         <v>2371</v>
       </c>
-      <c r="I13" s="11">
+      <c r="N13" s="11">
         <v>4504</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="9">
-        <v>0</v>
-      </c>
-      <c r="G14" s="9">
-        <v>0</v>
-      </c>
-      <c r="H14" s="9">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="I14" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="11">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="11">
+        <v>18</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="11">
         <v>2240</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>2223</v>
       </c>
-      <c r="I19" s="11">
+      <c r="N19" s="11">
         <v>2940</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="9">
+        <v>18</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="9">
         <v>1015</v>
       </c>
-      <c r="H20" s="9">
+      <c r="M20" s="9">
         <v>4446</v>
       </c>
-      <c r="I20" s="9">
+      <c r="N20" s="9">
         <v>3202</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
+        <v>12357</v>
+      </c>
+      <c r="F21" s="13">
+        <v>9087</v>
+      </c>
+      <c r="G21" s="13">
+        <v>4280</v>
+      </c>
+      <c r="H21" s="13">
+        <v>4067</v>
+      </c>
+      <c r="I21" s="13">
+        <v>9287</v>
+      </c>
+      <c r="J21" s="13">
         <v>6420</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>7091</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>3365</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>9362</v>
       </c>
-      <c r="I21" s="13">
+      <c r="N21" s="13">
         <v>11442</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -992,8 +1242,13 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1002,8 +1257,13 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1012,10 +1272,15 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -1034,8 +1299,23 @@
       <c r="I25" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1044,316 +1324,516 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9">
+        <v>89</v>
+      </c>
+      <c r="F27" s="9">
+        <v>126</v>
+      </c>
+      <c r="G27" s="9">
+        <v>67</v>
+      </c>
+      <c r="H27" s="9">
+        <v>173</v>
+      </c>
+      <c r="I27" s="9">
+        <v>320</v>
+      </c>
+      <c r="J27" s="9">
         <v>553</v>
       </c>
-      <c r="F27" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="9">
+      <c r="K27" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L27" s="9">
         <v>107</v>
       </c>
-      <c r="H27" s="9">
+      <c r="M27" s="9">
         <v>121</v>
       </c>
-      <c r="I27" s="9">
+      <c r="N27" s="9">
         <v>392</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11">
+        <v>2468</v>
+      </c>
+      <c r="F28" s="11">
+        <v>4219</v>
+      </c>
+      <c r="G28" s="11">
+        <v>2215</v>
+      </c>
+      <c r="H28" s="11">
+        <v>4772</v>
+      </c>
+      <c r="I28" s="11">
+        <v>5623</v>
+      </c>
+      <c r="J28" s="11">
         <v>5418</v>
       </c>
-      <c r="F28" s="11">
+      <c r="K28" s="11">
         <v>3948</v>
       </c>
-      <c r="G28" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L28" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M28" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N28" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
+        <v>2201</v>
+      </c>
+      <c r="F29" s="9">
+        <v>2468</v>
+      </c>
+      <c r="G29" s="9">
+        <v>3154</v>
+      </c>
+      <c r="H29" s="9">
+        <v>2247</v>
+      </c>
+      <c r="I29" s="9">
+        <v>1973</v>
+      </c>
+      <c r="J29" s="9">
         <v>2965</v>
       </c>
-      <c r="F29" s="9">
+      <c r="K29" s="9">
         <v>3623</v>
       </c>
-      <c r="G29" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L29" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D30" s="11"/>
-      <c r="E30" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>13</v>
+      <c r="E30" s="11">
+        <v>0</v>
+      </c>
+      <c r="F30" s="11">
+        <v>0</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="9">
-        <v>0</v>
-      </c>
-      <c r="H31" s="9">
+        <v>18</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31" s="9">
+        <v>0</v>
+      </c>
+      <c r="M31" s="9">
         <v>246</v>
       </c>
-      <c r="I31" s="9">
+      <c r="N31" s="9">
         <v>2574</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
-      <c r="E32" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="11">
-        <v>0</v>
-      </c>
-      <c r="H32" s="11">
-        <v>0</v>
+      <c r="E32" s="11">
+        <v>0</v>
+      </c>
+      <c r="F32" s="11">
+        <v>0</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="I32" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" s="11">
+        <v>0</v>
+      </c>
+      <c r="M32" s="11">
+        <v>0</v>
+      </c>
+      <c r="N32" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D33" s="9"/>
-      <c r="E33" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>13</v>
+      <c r="E33" s="9">
+        <v>0</v>
+      </c>
+      <c r="F33" s="9">
+        <v>0</v>
+      </c>
+      <c r="G33" s="9">
+        <v>0</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L34" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M34" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N34" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D35" s="9"/>
-      <c r="E35" s="9">
+      <c r="E35" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J35" s="9">
         <v>1250</v>
       </c>
-      <c r="F35" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I35" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K35" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N35" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="9">
+        <v>18</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L37" s="9">
         <v>2217</v>
       </c>
-      <c r="H37" s="9">
+      <c r="M37" s="9">
         <v>2198</v>
       </c>
-      <c r="I37" s="9">
+      <c r="N37" s="9">
         <v>2951</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" s="11">
+        <v>18</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L38" s="11">
         <v>1467</v>
       </c>
-      <c r="H38" s="11">
+      <c r="M38" s="11">
         <v>2611</v>
       </c>
-      <c r="I38" s="11">
+      <c r="N38" s="11">
         <v>3134</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15">
+        <v>4758</v>
+      </c>
+      <c r="F39" s="15">
+        <v>6813</v>
+      </c>
+      <c r="G39" s="15">
+        <v>5436</v>
+      </c>
+      <c r="H39" s="15">
+        <v>7192</v>
+      </c>
+      <c r="I39" s="15">
+        <v>7916</v>
+      </c>
+      <c r="J39" s="15">
         <v>10186</v>
       </c>
-      <c r="F39" s="15">
+      <c r="K39" s="15">
         <v>7571</v>
       </c>
-      <c r="G39" s="15">
+      <c r="L39" s="15">
         <v>3791</v>
       </c>
-      <c r="H39" s="15">
+      <c r="M39" s="15">
         <v>5176</v>
       </c>
-      <c r="I39" s="15">
+      <c r="N39" s="15">
         <v>9051</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1362,8 +1842,13 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1372,8 +1857,13 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1382,10 +1872,15 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -1404,8 +1899,23 @@
       <c r="I43" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M43" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N43" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1414,318 +1924,518 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9">
+        <v>8121</v>
+      </c>
+      <c r="F45" s="9">
+        <v>8629</v>
+      </c>
+      <c r="G45" s="9">
+        <v>5761</v>
+      </c>
+      <c r="H45" s="9">
+        <v>6330</v>
+      </c>
+      <c r="I45" s="9">
+        <v>8365</v>
+      </c>
+      <c r="J45" s="9">
         <v>16163</v>
       </c>
-      <c r="F45" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" s="9">
+      <c r="K45" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L45" s="9">
         <v>3751</v>
       </c>
-      <c r="H45" s="9">
+      <c r="M45" s="9">
         <v>5092</v>
       </c>
-      <c r="I45" s="9">
+      <c r="N45" s="9">
         <v>15889</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11">
+        <v>273430</v>
+      </c>
+      <c r="F46" s="11">
+        <v>445317</v>
+      </c>
+      <c r="G46" s="11">
+        <v>275792</v>
+      </c>
+      <c r="H46" s="11">
+        <v>579677</v>
+      </c>
+      <c r="I46" s="11">
+        <v>994742</v>
+      </c>
+      <c r="J46" s="11">
         <v>1330194</v>
       </c>
-      <c r="F46" s="11">
+      <c r="K46" s="11">
         <v>1027243</v>
       </c>
-      <c r="G46" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I46" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L46" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M46" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N46" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9">
+        <v>226639</v>
+      </c>
+      <c r="F47" s="9">
+        <v>332286</v>
+      </c>
+      <c r="G47" s="9">
+        <v>491341</v>
+      </c>
+      <c r="H47" s="9">
+        <v>387390</v>
+      </c>
+      <c r="I47" s="9">
+        <v>324501</v>
+      </c>
+      <c r="J47" s="9">
         <v>506457</v>
       </c>
-      <c r="F47" s="9">
+      <c r="K47" s="9">
         <v>784004</v>
       </c>
-      <c r="G47" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I47" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L47" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M47" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N47" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D48" s="11"/>
-      <c r="E48" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>13</v>
+      <c r="E48" s="11">
+        <v>0</v>
+      </c>
+      <c r="F48" s="11">
+        <v>0</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L48" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M48" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N48" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" s="9">
-        <v>0</v>
-      </c>
-      <c r="H49" s="9">
+        <v>18</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K49" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L49" s="9">
+        <v>0</v>
+      </c>
+      <c r="M49" s="9">
         <v>59540</v>
       </c>
-      <c r="I49" s="9">
+      <c r="N49" s="9">
         <v>666003</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D50" s="11"/>
-      <c r="E50" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" s="11">
-        <v>0</v>
-      </c>
-      <c r="H50" s="11">
-        <v>0</v>
+      <c r="E50" s="11">
+        <v>0</v>
+      </c>
+      <c r="F50" s="11">
+        <v>0</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="I50" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J50" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K50" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L50" s="11">
+        <v>0</v>
+      </c>
+      <c r="M50" s="11">
+        <v>0</v>
+      </c>
+      <c r="N50" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D51" s="9"/>
-      <c r="E51" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>13</v>
+      <c r="E51" s="9">
+        <v>0</v>
+      </c>
+      <c r="F51" s="9">
+        <v>0</v>
+      </c>
+      <c r="G51" s="9">
+        <v>0</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K51" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L51" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M51" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N51" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L52" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M52" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N52" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D53" s="9"/>
-      <c r="E53" s="9">
+      <c r="E53" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J53" s="9">
         <v>27507</v>
       </c>
-      <c r="F53" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H53" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I53" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K53" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L53" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M53" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N53" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L54" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M54" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N54" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" s="9">
+        <v>18</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J55" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K55" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L55" s="9">
         <v>709072</v>
       </c>
-      <c r="H55" s="9">
+      <c r="M55" s="9">
         <v>959914</v>
       </c>
-      <c r="I55" s="9">
+      <c r="N55" s="9">
         <v>1256192</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" s="11">
+        <v>18</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I56" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K56" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L56" s="11">
         <v>516009</v>
       </c>
-      <c r="H56" s="11">
+      <c r="M56" s="11">
         <v>1054881</v>
       </c>
-      <c r="I56" s="11">
+      <c r="N56" s="11">
         <v>1094169</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="14" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
       <c r="E57" s="15">
+        <v>508190</v>
+      </c>
+      <c r="F57" s="15">
+        <v>786232</v>
+      </c>
+      <c r="G57" s="15">
+        <v>772894</v>
+      </c>
+      <c r="H57" s="15">
+        <v>973397</v>
+      </c>
+      <c r="I57" s="15">
+        <v>1327608</v>
+      </c>
+      <c r="J57" s="15">
         <v>1880321</v>
       </c>
-      <c r="F57" s="15">
+      <c r="K57" s="15">
         <v>1811247</v>
       </c>
-      <c r="G57" s="15">
+      <c r="L57" s="15">
         <v>1228832</v>
       </c>
-      <c r="H57" s="15">
+      <c r="M57" s="15">
         <v>2079427</v>
       </c>
-      <c r="I57" s="15">
+      <c r="N57" s="15">
         <v>3032253</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1734,8 +2444,13 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1744,8 +2459,13 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1754,10 +2474,15 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B61" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -1776,8 +2501,23 @@
       <c r="I61" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J61" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L61" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M61" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N61" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1786,296 +2526,481 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9">
+        <v>91247191</v>
+      </c>
+      <c r="F63" s="9">
+        <v>68484127</v>
+      </c>
+      <c r="G63" s="9">
+        <v>85985075</v>
+      </c>
+      <c r="H63" s="9">
+        <v>36589595</v>
+      </c>
+      <c r="I63" s="9">
+        <v>26140625</v>
+      </c>
+      <c r="J63" s="9">
         <v>29227848</v>
       </c>
-      <c r="F63" s="9">
+      <c r="K63" s="9">
         <v>32450867</v>
       </c>
-      <c r="G63" s="9">
+      <c r="L63" s="9">
         <v>35056075</v>
       </c>
-      <c r="H63" s="9">
+      <c r="M63" s="9">
         <v>42082645</v>
       </c>
-      <c r="I63" s="9">
+      <c r="N63" s="9">
         <v>40533163</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
+        <v>110790113</v>
+      </c>
+      <c r="F64" s="11">
+        <v>105550367</v>
+      </c>
+      <c r="G64" s="11">
+        <v>124511061</v>
+      </c>
+      <c r="H64" s="11">
+        <v>121474644</v>
+      </c>
+      <c r="I64" s="11">
+        <v>176905922</v>
+      </c>
+      <c r="J64" s="11">
         <v>245513843</v>
       </c>
-      <c r="F64" s="11">
+      <c r="K64" s="11">
         <v>260193262</v>
       </c>
-      <c r="G64" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H64" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I64" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L64" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M64" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N64" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9">
+        <v>102970922</v>
+      </c>
+      <c r="F65" s="9">
+        <v>134637763</v>
+      </c>
+      <c r="G65" s="9">
+        <v>155783450</v>
+      </c>
+      <c r="H65" s="9">
+        <v>172403204</v>
+      </c>
+      <c r="I65" s="9">
+        <v>164470857</v>
+      </c>
+      <c r="J65" s="9">
         <v>170811804</v>
       </c>
-      <c r="F65" s="9">
+      <c r="K65" s="9">
         <v>216396357</v>
       </c>
-      <c r="G65" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H65" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I65" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L65" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M65" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N65" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I66" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J66" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K66" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L66" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M66" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N66" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H67" s="9">
+        <v>18</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J67" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K67" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L67" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M67" s="9">
         <v>242032520</v>
       </c>
-      <c r="I67" s="9">
+      <c r="N67" s="9">
         <v>258742424</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J68" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K68" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L68" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M68" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N68" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J69" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K69" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L69" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M69" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N69" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J70" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K70" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L70" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M70" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N70" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D71" s="9"/>
-      <c r="E71" s="9">
+      <c r="E71" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I71" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J71" s="9">
         <v>22005600</v>
       </c>
-      <c r="F71" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G71" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H71" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I71" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K71" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L71" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M71" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N71" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J72" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K72" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L72" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M72" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N72" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G73" s="9">
+        <v>18</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I73" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J73" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K73" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L73" s="9">
         <v>319834010</v>
       </c>
-      <c r="H73" s="9">
+      <c r="M73" s="9">
         <v>436721565</v>
       </c>
-      <c r="I73" s="9">
+      <c r="N73" s="9">
         <v>425683497</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G74" s="11">
+        <v>18</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H74" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I74" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J74" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K74" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L74" s="11">
         <v>351744376</v>
       </c>
-      <c r="H74" s="11">
+      <c r="M74" s="11">
         <v>404014171</v>
       </c>
-      <c r="I74" s="11">
+      <c r="N74" s="11">
         <v>349128590</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2084,8 +3009,13 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2094,8 +3024,13 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2104,10 +3039,15 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-    </row>
-    <row r="78" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+    </row>
+    <row r="78" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B78" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -2126,8 +3066,23 @@
       <c r="I78" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J78" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K78" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L78" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M78" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N78" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2136,270 +3091,440 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9">
+        <v>-7995</v>
+      </c>
+      <c r="F80" s="9">
+        <v>-6748</v>
+      </c>
+      <c r="G80" s="9">
+        <v>-7452</v>
+      </c>
+      <c r="H80" s="9">
+        <v>-6050</v>
+      </c>
+      <c r="I80" s="9">
+        <v>-7883</v>
+      </c>
+      <c r="J80" s="9">
         <v>-15358</v>
       </c>
-      <c r="F80" s="9">
+      <c r="K80" s="9">
         <v>-3916</v>
       </c>
-      <c r="G80" s="9">
+      <c r="L80" s="9">
         <v>-3699</v>
       </c>
-      <c r="H80" s="9">
+      <c r="M80" s="9">
         <v>-5017</v>
       </c>
-      <c r="I80" s="9">
+      <c r="N80" s="9">
         <v>-15731</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11">
+        <v>-167732</v>
+      </c>
+      <c r="F81" s="11">
+        <v>-443400</v>
+      </c>
+      <c r="G81" s="11">
+        <v>-234062</v>
+      </c>
+      <c r="H81" s="11">
+        <v>-439157</v>
+      </c>
+      <c r="I81" s="11">
+        <v>-544423</v>
+      </c>
+      <c r="J81" s="11">
         <v>-1061478</v>
       </c>
-      <c r="F81" s="11">
+      <c r="K81" s="11">
         <v>-839161</v>
       </c>
-      <c r="G81" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H81" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I81" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L81" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M81" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N81" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D82" s="9"/>
       <c r="E82" s="9">
+        <v>-229724</v>
+      </c>
+      <c r="F82" s="9">
+        <v>-211794</v>
+      </c>
+      <c r="G82" s="9">
+        <v>-413848</v>
+      </c>
+      <c r="H82" s="9">
+        <v>-284241</v>
+      </c>
+      <c r="I82" s="9">
+        <v>-269461</v>
+      </c>
+      <c r="J82" s="9">
         <v>-430520</v>
       </c>
-      <c r="F82" s="9">
+      <c r="K82" s="9">
         <v>-615472</v>
       </c>
-      <c r="G82" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H82" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I82" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L82" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M82" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N82" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D83" s="11"/>
-      <c r="E83" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F83" s="11" t="s">
-        <v>13</v>
+      <c r="E83" s="11">
+        <v>0</v>
+      </c>
+      <c r="F83" s="11">
+        <v>0</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J83" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K83" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L83" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M83" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N83" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D84" s="9"/>
       <c r="E84" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G84" s="9">
-        <v>0</v>
-      </c>
-      <c r="H84" s="9">
+        <v>18</v>
+      </c>
+      <c r="G84" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H84" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I84" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J84" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K84" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L84" s="9">
+        <v>0</v>
+      </c>
+      <c r="M84" s="9">
         <v>-50032</v>
       </c>
-      <c r="I84" s="9">
+      <c r="N84" s="9">
         <v>-604656</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D85" s="11"/>
-      <c r="E85" s="11" t="s">
-        <v>13</v>
+      <c r="E85" s="11">
+        <v>0</v>
       </c>
       <c r="F85" s="11">
         <v>0</v>
       </c>
-      <c r="G85" s="11">
-        <v>0</v>
-      </c>
-      <c r="H85" s="11">
-        <v>0</v>
+      <c r="G85" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H85" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="I85" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J85" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K85" s="11">
+        <v>0</v>
+      </c>
+      <c r="L85" s="11">
+        <v>0</v>
+      </c>
+      <c r="M85" s="11">
+        <v>0</v>
+      </c>
+      <c r="N85" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D86" s="9"/>
-      <c r="E86" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F86" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G86" s="9" t="s">
-        <v>13</v>
+      <c r="E86" s="9">
+        <v>0</v>
+      </c>
+      <c r="F86" s="9">
+        <v>0</v>
+      </c>
+      <c r="G86" s="9">
+        <v>0</v>
       </c>
       <c r="H86" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J86" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K86" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L86" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M86" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N86" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D87" s="11"/>
-      <c r="E87" s="11">
+      <c r="E87" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F87" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G87" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H87" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I87" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J87" s="11">
         <v>-17880</v>
       </c>
-      <c r="F87" s="11">
+      <c r="K87" s="11">
         <v>8022</v>
       </c>
-      <c r="G87" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H87" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I87" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L87" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M87" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N87" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D88" s="9"/>
       <c r="E88" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G88" s="9">
+        <v>18</v>
+      </c>
+      <c r="G88" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H88" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I88" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J88" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K88" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L88" s="9">
         <v>-519457</v>
       </c>
-      <c r="H88" s="9">
+      <c r="M88" s="9">
         <v>-819189</v>
       </c>
-      <c r="I88" s="9">
+      <c r="N88" s="9">
         <v>-1128308</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G89" s="11">
+        <v>18</v>
+      </c>
+      <c r="G89" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H89" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I89" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J89" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K89" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L89" s="11">
         <v>-365805</v>
       </c>
-      <c r="H89" s="11">
+      <c r="M89" s="11">
         <v>-867297</v>
       </c>
-      <c r="I89" s="11">
+      <c r="N89" s="11">
         <v>-1012739</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="14" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C90" s="15"/>
       <c r="D90" s="15"/>
       <c r="E90" s="15">
+        <v>-405451</v>
+      </c>
+      <c r="F90" s="15">
+        <v>-661942</v>
+      </c>
+      <c r="G90" s="15">
+        <v>-655362</v>
+      </c>
+      <c r="H90" s="15">
+        <v>-729448</v>
+      </c>
+      <c r="I90" s="15">
+        <v>-821767</v>
+      </c>
+      <c r="J90" s="15">
         <v>-1525236</v>
       </c>
-      <c r="F90" s="15">
+      <c r="K90" s="15">
         <v>-1450527</v>
       </c>
-      <c r="G90" s="15">
+      <c r="L90" s="15">
         <v>-888961</v>
       </c>
-      <c r="H90" s="15">
+      <c r="M90" s="15">
         <v>-1741535</v>
       </c>
-      <c r="I90" s="15">
+      <c r="N90" s="15">
         <v>-2761434</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2408,8 +3533,13 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2418,8 +3548,13 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2428,10 +3563,15 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-    </row>
-    <row r="94" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+    </row>
+    <row r="94" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B94" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -2450,8 +3590,23 @@
       <c r="I94" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J94" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K94" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L94" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M94" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N94" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2460,266 +3615,436 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D96" s="9"/>
       <c r="E96" s="9">
+        <v>126</v>
+      </c>
+      <c r="F96" s="9">
+        <v>1881</v>
+      </c>
+      <c r="G96" s="9">
+        <v>-1691</v>
+      </c>
+      <c r="H96" s="9">
+        <v>280</v>
+      </c>
+      <c r="I96" s="9">
+        <v>482</v>
+      </c>
+      <c r="J96" s="9">
         <v>805</v>
       </c>
-      <c r="F96" s="9">
+      <c r="K96" s="9">
         <v>1698</v>
       </c>
-      <c r="G96" s="9">
+      <c r="L96" s="9">
         <v>52</v>
       </c>
-      <c r="H96" s="9">
+      <c r="M96" s="9">
         <v>75</v>
       </c>
-      <c r="I96" s="9">
+      <c r="N96" s="9">
         <v>158</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11">
+        <v>105698</v>
+      </c>
+      <c r="F97" s="11">
+        <v>1917</v>
+      </c>
+      <c r="G97" s="11">
+        <v>41730</v>
+      </c>
+      <c r="H97" s="11">
+        <v>140520</v>
+      </c>
+      <c r="I97" s="11">
+        <v>450319</v>
+      </c>
+      <c r="J97" s="11">
         <v>268716</v>
       </c>
-      <c r="F97" s="11">
+      <c r="K97" s="11">
         <v>188082</v>
       </c>
-      <c r="G97" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H97" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I97" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L97" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M97" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N97" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D98" s="9"/>
       <c r="E98" s="9">
+        <v>-3085</v>
+      </c>
+      <c r="F98" s="9">
+        <v>120492</v>
+      </c>
+      <c r="G98" s="9">
+        <v>77493</v>
+      </c>
+      <c r="H98" s="9">
+        <v>103149</v>
+      </c>
+      <c r="I98" s="9">
+        <v>55040</v>
+      </c>
+      <c r="J98" s="9">
         <v>75937</v>
       </c>
-      <c r="F98" s="9">
+      <c r="K98" s="9">
         <v>168532</v>
       </c>
-      <c r="G98" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H98" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I98" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L98" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M98" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N98" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D99" s="11"/>
-      <c r="E99" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F99" s="11" t="s">
-        <v>13</v>
+      <c r="E99" s="11">
+        <v>0</v>
+      </c>
+      <c r="F99" s="11">
+        <v>0</v>
       </c>
       <c r="G99" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H99" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I99" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J99" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K99" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L99" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M99" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N99" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D100" s="9"/>
       <c r="E100" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" s="9">
-        <v>0</v>
-      </c>
-      <c r="H100" s="9">
+        <v>18</v>
+      </c>
+      <c r="G100" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H100" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I100" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J100" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K100" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L100" s="9">
+        <v>0</v>
+      </c>
+      <c r="M100" s="9">
         <v>9508</v>
       </c>
-      <c r="I100" s="9">
+      <c r="N100" s="9">
         <v>61347</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D101" s="11"/>
-      <c r="E101" s="11" t="s">
-        <v>13</v>
+      <c r="E101" s="11">
+        <v>0</v>
       </c>
       <c r="F101" s="11">
         <v>0</v>
       </c>
-      <c r="G101" s="11">
-        <v>0</v>
-      </c>
-      <c r="H101" s="11">
-        <v>0</v>
+      <c r="G101" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H101" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="I101" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J101" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K101" s="11">
+        <v>0</v>
+      </c>
+      <c r="L101" s="11">
+        <v>0</v>
+      </c>
+      <c r="M101" s="11">
+        <v>0</v>
+      </c>
+      <c r="N101" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D102" s="9"/>
-      <c r="E102" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F102" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G102" s="9" t="s">
-        <v>13</v>
+      <c r="E102" s="9">
+        <v>0</v>
+      </c>
+      <c r="F102" s="9">
+        <v>0</v>
+      </c>
+      <c r="G102" s="9">
+        <v>0</v>
       </c>
       <c r="H102" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I102" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J102" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K102" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L102" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M102" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N102" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D103" s="11"/>
-      <c r="E103" s="11">
+      <c r="E103" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F103" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G103" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H103" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I103" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J103" s="11">
         <v>9627</v>
       </c>
-      <c r="F103" s="11">
+      <c r="K103" s="11">
         <v>8022</v>
       </c>
-      <c r="G103" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H103" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I103" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L103" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M103" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N103" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D104" s="9"/>
       <c r="E104" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G104" s="9">
+        <v>18</v>
+      </c>
+      <c r="G104" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H104" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I104" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J104" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K104" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L104" s="9">
         <v>189615</v>
       </c>
-      <c r="H104" s="9">
+      <c r="M104" s="9">
         <v>140725</v>
       </c>
-      <c r="I104" s="9">
+      <c r="N104" s="9">
         <v>127884</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D105" s="11"/>
       <c r="E105" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G105" s="11">
+        <v>18</v>
+      </c>
+      <c r="G105" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H105" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I105" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J105" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K105" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L105" s="11">
         <v>150204</v>
       </c>
-      <c r="H105" s="11">
+      <c r="M105" s="11">
         <v>187584</v>
       </c>
-      <c r="I105" s="11">
+      <c r="N105" s="11">
         <v>81430</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="14" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C106" s="15"/>
       <c r="D106" s="15"/>
       <c r="E106" s="15">
+        <v>102739</v>
+      </c>
+      <c r="F106" s="15">
+        <v>124290</v>
+      </c>
+      <c r="G106" s="15">
+        <v>117532</v>
+      </c>
+      <c r="H106" s="15">
+        <v>243949</v>
+      </c>
+      <c r="I106" s="15">
+        <v>505841</v>
+      </c>
+      <c r="J106" s="15">
         <v>355085</v>
       </c>
-      <c r="F106" s="15">
+      <c r="K106" s="15">
         <v>366334</v>
       </c>
-      <c r="G106" s="15">
+      <c r="L106" s="15">
         <v>339871</v>
       </c>
-      <c r="H106" s="15">
+      <c r="M106" s="15">
         <v>337892</v>
       </c>
-      <c r="I106" s="15">
+      <c r="N106" s="15">
         <v>270819</v>
       </c>
     </row>

--- a/database/industries/ghaza/gheshahdab/product/quarterly.xlsx
+++ b/database/industries/ghaza/gheshahdab/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\gheshahdab\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\gheshahdab\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222EF5A2-DF58-4B8E-8B60-877C09E29D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6647E7-B41B-4248-B49C-DCB9579F3B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -599,12 +599,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -619,7 +619,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -636,7 +636,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -653,7 +653,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -668,7 +668,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -685,7 +685,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -702,7 +702,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -717,7 +717,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -754,7 +754,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -769,7 +769,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -808,7 +808,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>17</v>
       </c>
@@ -847,7 +847,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
@@ -886,7 +886,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -925,7 +925,7 @@
         <v>4504</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>21</v>
       </c>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>22</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>23</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>24</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>25</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>26</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>2940</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>27</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>3202</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>28</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>11442</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1248,7 +1248,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1263,7 +1263,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1278,7 +1278,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
         <v>29</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1330,7 +1330,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>15</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
         <v>17</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>19</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>30</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>20</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>2574</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>21</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>22</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>23</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>24</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>25</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>26</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>2951</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>27</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>3134</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>28</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>9051</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1848,7 +1848,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1863,7 +1863,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1878,7 +1878,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B43" s="7" t="s">
         <v>32</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1930,7 +1930,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>15</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>15889</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>17</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>19</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>30</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>20</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>666003</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>21</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>22</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>23</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>24</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>25</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>26</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>1256192</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>27</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>1094169</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="14" t="s">
         <v>28</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>3032253</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2450,7 +2450,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2465,7 +2465,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2480,7 +2480,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B61" s="7" t="s">
         <v>34</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2532,7 +2532,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>15</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>40533163</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>17</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>19</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>30</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>20</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>258742424</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>21</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>22</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>23</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>24</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>25</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>26</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>425683497</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>27</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>349128590</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -3015,7 +3015,7 @@
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -3030,7 +3030,7 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -3045,7 +3045,7 @@
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B78" s="7" t="s">
         <v>38</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -3097,7 +3097,7 @@
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>15</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>-15731</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>17</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
         <v>19</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="10" t="s">
         <v>30</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
         <v>20</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>-604656</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>21</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
         <v>22</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>24</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
         <v>26</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>-1128308</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>27</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>-1012739</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="14" t="s">
         <v>28</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>-2761434</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3539,7 +3539,7 @@
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3554,7 +3554,7 @@
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -3569,7 +3569,7 @@
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
     </row>
-    <row r="94" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B94" s="7" t="s">
         <v>39</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -3621,7 +3621,7 @@
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
         <v>15</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>17</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="8" t="s">
         <v>19</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>30</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
         <v>20</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>61347</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>21</v>
       </c>
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="8" t="s">
         <v>22</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>24</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="8" t="s">
         <v>26</v>
       </c>
@@ -3972,7 +3972,7 @@
         <v>127884</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
         <v>27</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>81430</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="14" t="s">
         <v>28</v>
       </c>
